--- a/travel_package/data/Paquetes.xlsx
+++ b/travel_package/data/Paquetes.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roly\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\openerp_travel\openerp_travel\travel_package\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Paquetes" sheetId="1" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t>Nombre suplemento</t>
   </si>
   <si>
-    <t xml:space="preserve">Días </t>
-  </si>
-  <si>
     <t>Categoría</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>Sitio web</t>
+  </si>
+  <si>
+    <t>Días</t>
   </si>
 </sst>
 </file>
@@ -437,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -453,13 +453,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -492,7 +492,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -504,10 +504,10 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
         <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>16</v>
       </c>
       <c r="G1" t="s">
         <v>9</v>
@@ -539,7 +539,7 @@
         <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
         <v>6</v>
@@ -560,7 +560,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -575,7 +575,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
